--- a/XLExpression.Excel.Test/Attachments/XLExpression.xlsx
+++ b/XLExpression.Excel.Test/Attachments/XLExpression.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\XLExpression\XLExpression.Excel.Test\Attachments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BBC445-6428-4701-A418-CCE4951D6498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70701199-A847-4E72-8E9B-8DEAB27742CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1755" windowWidth="26610" windowHeight="18285" xr2:uid="{C14515B7-1F07-4475-A97B-12F79FEE4F72}"/>
+    <workbookView xWindow="6225" yWindow="1875" windowWidth="26610" windowHeight="18285" xr2:uid="{C14515B7-1F07-4475-A97B-12F79FEE4F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6447B7D5-BD37-46F5-8732-09DC50AC941F}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,44 +634,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
@@ -683,11 +681,11 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -868,6 +866,120 @@
       <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>92490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2">
+        <v>23</v>
+      </c>
+      <c r="D46" s="1">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1">
+        <v>30</v>
+      </c>
+      <c r="K46" s="2">
+        <v>31</v>
+      </c>
+      <c r="L46" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -888,19 +1000,278 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A05775B-B653-4779-80FD-58192E32E81C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1230</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1231</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2323</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(E3:F3)</f>
+        <v>3554</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5123</v>
+      </c>
+      <c r="I3" s="1">
+        <v>120</v>
+      </c>
+      <c r="J3" s="7">
+        <f>C3+D3-G3-H3-I3</f>
+        <v>4778</v>
+      </c>
+      <c r="K3" s="6">
+        <v>44903</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>54125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1213</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3252</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G6" si="0">SUM(E4:F4)</f>
+        <v>4465</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4123</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J6" si="1">C4+D4-G4-H4-I4</f>
+        <v>47537</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44904</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5410</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2222</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2512</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>4734</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3351</v>
+      </c>
+      <c r="I5" s="1">
+        <v>322</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>20148</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44905</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23145</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1111</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2213</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3324</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2654</v>
+      </c>
+      <c r="I6" s="3">
+        <v>140</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>20027</v>
+      </c>
+      <c r="K6" s="5">
+        <v>44906</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SUM(G3:G6)</f>
+        <v>16077</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:J7" si="2">SUM(H3:H6)</f>
+        <v>15251</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>92490</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -914,5 +1285,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XLExpression.Excel.Test/Attachments/XLExpression.xlsx
+++ b/XLExpression.Excel.Test/Attachments/XLExpression.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70701199-A847-4E72-8E9B-8DEAB27742CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E373010-4614-4065-8905-1BBDBFC76FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1875" windowWidth="26610" windowHeight="18285" xr2:uid="{C14515B7-1F07-4475-A97B-12F79FEE4F72}"/>
+    <workbookView xWindow="4365" yWindow="1500" windowWidth="26610" windowHeight="18285" xr2:uid="{C14515B7-1F07-4475-A97B-12F79FEE4F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实发*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,10 +1013,14 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
@@ -1039,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>15</v>
@@ -1098,8 +1106,8 @@
         <v>120</v>
       </c>
       <c r="J3" s="7">
-        <f>C3+D3-G3-H3-I3</f>
-        <v>4778</v>
+        <f>C3+D3-G3-H3-I3+Sheet1!J3</f>
+        <v>9556</v>
       </c>
       <c r="K3" s="6">
         <v>44903</v>
@@ -1138,8 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J6" si="1">C4+D4-G4-H4-I4</f>
-        <v>47537</v>
+        <f>C4+D4-G4-H4-I4+Sheet1!J4</f>
+        <v>95074</v>
       </c>
       <c r="K4" s="5">
         <v>44904</v>
@@ -1178,8 +1186,8 @@
         <v>322</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>20148</v>
+        <f>C5+D5-G5-H5-I5+Sheet1!J5</f>
+        <v>40296</v>
       </c>
       <c r="K5" s="5">
         <v>44905</v>
@@ -1218,8 +1226,8 @@
         <v>140</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>20027</v>
+        <f>C6+D6-G6-H6-I6+Sheet1!J6</f>
+        <v>40054</v>
       </c>
       <c r="K6" s="5">
         <v>44906</v>
@@ -1242,16 +1250,16 @@
         <v>16077</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:J7" si="2">SUM(H3:H6)</f>
+        <f t="shared" ref="H7:J7" si="1">SUM(H3:H6)</f>
         <v>15251</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
-        <v>92490</v>
+        <f t="shared" si="1"/>
+        <v>184980</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
